--- a/_site/Data/WorkforceModule.xlsx
+++ b/_site/Data/WorkforceModule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA663E1-623D-B544-9E79-35874CE9500C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A013ACE-1330-C840-82D4-92CC984ADD95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7460" yWindow="980" windowWidth="27240" windowHeight="15520" xr2:uid="{9575E0E9-E6B7-B14C-8980-06A5DFB76036}"/>
+    <workbookView xWindow="31540" yWindow="5720" windowWidth="27240" windowHeight="15520" xr2:uid="{9575E0E9-E6B7-B14C-8980-06A5DFB76036}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>Question</t>
   </si>
@@ -116,9 +116,6 @@
 • Not applicable   facemask and/or other appropriate PPE  </t>
   </si>
   <si>
-    <t>Frequency</t>
-  </si>
-  <si>
     <t>Who earns more money in your household?</t>
   </si>
   <si>
@@ -129,10 +126,6 @@
   </si>
   <si>
     <t>Developed by RAPID Team</t>
-  </si>
-  <si>
-    <t>Has this changed since the coronavirus (COVID-19) pandemic?
-(Ex. Did you make more money than your partner prior to the pandemic, but now you make less?)</t>
   </si>
   <si>
     <t>• Yes
@@ -164,6 +157,22 @@
   </si>
   <si>
     <t>33, 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source Link </t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov/coronavirus/2019-ncov/community/critical-workers/implementing-safety-practices.htmlCDC%20guideline%20on%20how%20to%20protect%20essential%20workers</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov/coronavirus/2019-ncov/community/critical-infrastructure-sectors.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Fcommunity%2Fcritical-workers%2Fimplementing-safety-practices.html</t>
+  </si>
+  <si>
+    <t>RAPID Team Modified</t>
+  </si>
+  <si>
+    <t>Has this changed since the coronavirus (COVID-19) pandemic?
+(Ex. Did you make more money than your partner prior to the pandemic, but now you make less?)</t>
   </si>
 </sst>
 </file>
@@ -228,26 +237,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -566,17 +580,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A766DCA-D67F-2A49-8967-5AE43AC2E758}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="41.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="27.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -591,71 +604,71 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -664,13 +677,15 @@
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -679,13 +694,15 @@
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -694,13 +711,15 @@
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -709,13 +728,15 @@
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -724,49 +745,55 @@
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="238" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>15</v>
+      <c r="C11" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="E11" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>15</v>
+      <c r="C12" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" xr:uid="{2EC808F4-4E5A-964C-9745-CE9E29B67148}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{439CBB21-9B26-C745-9E62-B5376A86999F}"/>
-    <hyperlink ref="C12" r:id="rId3" xr:uid="{7BDA1760-F21F-0B45-87BA-0F8B39196F91}"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{DA872A89-BE39-9848-83E5-69BF7D19F28F}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{A07B0FDB-947F-2346-B9F8-95B3AD4F9383}"/>
+    <hyperlink ref="D12" r:id="rId3" xr:uid="{0C4DABA4-3BEF-884E-983C-32C25F368B85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_site/Data/WorkforceModule.xlsx
+++ b/_site/Data/WorkforceModule.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25103"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34A245A-2145-3B4D-AA83-75BD979584AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{024DC49E-46A2-6B42-8BA4-203A6875CB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48100" yWindow="-4720" windowWidth="19100" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12080" yWindow="500" windowWidth="16020" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>Question</t>
   </si>
@@ -34,7 +45,7 @@
     <t xml:space="preserve">Source Link </t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <t>Dates Used</t>
   </si>
   <si>
     <t>Who earns more money in your household?</t>
@@ -49,6 +60,27 @@
     <t>Developed by RAPID Team</t>
   </si>
   <si>
+    <t>04/21/2020-04/27/2020
+04/28/2020-05/04/2020 
+05/05/2020-05/11/2020
+05/11/2020-05/18/2020
+05/18/2020-05/21/2020
+05/25/2020-05/28/2020 
+06/01/2020-06/04/2020 
+06/08/2020-06/11/2020
+06/15/2020-06/18/2020
+06/22/2020-06/25/2020
+06/29/2020-07/02/2020
+07/06/2020-07/09/2020
+07/13/2020-07/16/2020
+07/20/2020-07/23/2020
+07/27/2020-07/30/2020
+08/03/2020-08/07/2020
+08/10/2020-08/13/2020
+08/17/2020-08/20/2020
+08/24/2020-08/27/2020          09/08/2020-09/10/2020         09/21/2020-09/24/2020        10/05/2020-10/08/2020 11/17/2020-11/19/2020          12/15/2020-12/17/2020           02 17/2021-02/19/2021      03/02/2021-03/05/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021</t>
+  </si>
+  <si>
     <t>Has this changed since the coronavirus (COVID-19) pandemic?
 (Ex. Did you make more money than your partner prior to the pandemic, but now you make less?)</t>
   </si>
@@ -57,6 +89,27 @@
 • No
 • Unsure
 • Other [Free Text]</t>
+  </si>
+  <si>
+    <t>04/21/2020-04/27/2020
+04/28/2020-05/04/2020 
+05/05/2020-05/11/2020
+05/11/2020-05/18/2020
+05/18/2020-05/21/2020
+05/25/2020-05/28/2020 
+06/01/2020-06/04/2020 
+06/08/2020-06/11/2020
+06/15/2020-06/18/2020
+06/22/2020-06/25/2020
+06/29/2020-07/02/2020
+07/06/2020-07/09/2020
+07/13/2020-07/16/2020
+07/20/2020-07/23/2020
+07/27/2020-07/30/2020
+08/03/2020-08/07/2020
+08/10/2020-08/13/2020
+08/17/2020-08/20/2020
+08/24/2020-08/27/2020          09/08/2020-09/10/2020         09/21/2020-09/24/2020        10/05/2020-10/08/2020                11/17/2020-11/19/2020          12/15/2020-12/17/2020           02 17/2021-02/19/2021      03/02/2021-03/05/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021</t>
   </si>
   <si>
     <t xml:space="preserve">What was your partner's employment status prior to the coronavirus (COVID-19) Pandemic? If you do not have a partner, please select not applicable. </t>
@@ -72,10 +125,24 @@
     <t xml:space="preserve">RAPID Team Modified from U.S. Census </t>
   </si>
   <si>
+    <t>09/08/2020-09/10/2020
+09/14/2020-09/17/2020
+09/21/2020-09/24/2020 
+09/28/2020-10/01/2020
+10/05/2020-10/08/2020  11/17/2020-11/19/2020          12/15/2020-12/17/2020           02 17/2021-02/19/2021      03/02/2021-03/05/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">What is your partner's current employment status? If you do not have a partner, please select not applicable. </t>
   </si>
   <si>
-    <t xml:space="preserve">Since the COVID-19 crisis, have you considered any of the following? Select all that apply. </t>
+    <t>09/08/2020-09/10/2020
+09/14/2020-09/17/2020
+09/21/2020-09/24/2020 
+09/28/2020-10/01/2020
+10/05/2020-10/08/2020  11/17/2020-11/19/2020          12/15/2020-12/17/2020           02/17/2021-02/19/2021      03/02/2021-03/05/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since the COVID-19 pandemic, have you considered any of the following? Select all that apply. </t>
   </si>
   <si>
     <t>• Reducing my work hours  
@@ -101,6 +168,9 @@
     </r>
   </si>
   <si>
+    <t>11/17/2020-11/19/2020          12/15/2020-12/17/2020           02/17/2021-02/19/2021      03/02/2021-03/05/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Since the start of the COVID-19 crisis, what have been the biggest challenges for you as an employee? Select all that apply. </t>
   </si>
   <si>
@@ -109,10 +179,15 @@
 • Mental Health  
 • Childcare and/or homeschooling responsibilities  
 • Physical and mental health of loved ones                      • Financial insecurity  
+• The work itself
+• Not listen (please specify)
 • None of the above                                                               • Not applicable</t>
   </si>
   <si>
     <t>https://wiw-report.s3.amazonaws.com/Women_in_the_Workplace_2020.pdf</t>
+  </si>
+  <si>
+    <t>11/17/2020-11/19/2020          12/15/2020-12/17/2020           02/17/2021-02/19/2021      03/02/2021-03/05/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021               01/03/2022-01/24/2022</t>
   </si>
   <si>
     <t>Who is responsible for most of the household labor?</t>
@@ -131,6 +206,8 @@
     <t>• Discomfort sharing work-life challenges  
 • Worry about performance being judged due to caregiving responsibilities    
 • Discomfort sharing status as a parent   
+• Empathy from my colleagues
+• Flexibility from my supervisor
 • None of the above</t>
   </si>
   <si>
@@ -183,6 +260,12 @@
     <t>Overall, do you feel protected and safe in your workplace?</t>
   </si>
   <si>
+    <t>• Not protected at all  
+• Somewhat protected  
+• Very well protected   
+• Not applicable</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
@@ -195,43 +278,7 @@
     </r>
   </si>
   <si>
-    <t>Since the COVID-19 crisis, which of the following have you done?</t>
-  </si>
-  <si>
-    <t>From a financial perspective, can you currently afford to reduce your work hours?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAPID Team Developed </t>
-  </si>
-  <si>
-    <t>From a financial perspective, can you currently afford to stop working?</t>
-  </si>
-  <si>
-    <t>RAPID Team Developed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please describe any concerns or other thoughts you have about working and parenting during the pandemic. </t>
-  </si>
-  <si>
-    <t>Open response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAPID team developed </t>
-  </si>
-  <si>
-    <t>3 to 21, 23, 25, 27, 33, 37, 45, 47, 49, 53</t>
-  </si>
-  <si>
-    <t>23 to 27, 33, 37, 45, 47, 49, 53</t>
-  </si>
-  <si>
-    <t>33, 37, 45, 47, 49, 53</t>
-  </si>
-  <si>
-    <t>• Not protected at all  
-• Somewhat protected  
-• Very well protected   
-• Not applicable</t>
+    <t>Since the COVID-19 pandemic, which of the following have you done?</t>
   </si>
   <si>
     <t>• I reduced my work hours
@@ -242,19 +289,56 @@
 • Not applicable</t>
   </si>
   <si>
+    <t>03/02/2021-03/05/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021               01/03/2022-01/24/2022</t>
+  </si>
+  <si>
+    <t>From a financial perspective, can you currently afford to reduce your work hours?</t>
+  </si>
+  <si>
     <t>• Yes
 • No
 • Not applicable</t>
   </si>
   <si>
-    <t>47, 49, 53</t>
+    <t xml:space="preserve">RAPID Team Developed </t>
+  </si>
+  <si>
+    <t>From a financial perspective, can you currently afford to stop working?</t>
+  </si>
+  <si>
+    <t>RAPID Team Developed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please describe any concerns or other thoughts you have about working and parenting during the pandemic. </t>
+  </si>
+  <si>
+    <t>Open response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAPID team developed </t>
+  </si>
+  <si>
+    <t>03/02/2021-03/05/2021 03/17/2021-03/20/2021 04/14/2021-04/16/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">▢ Encouraging or requiring sick employees to stay home (for COVID-19 or any illness)  
+▢ Conducting daily in-person health checks (e.g., monitoring fever/temperature or symptoms)   
+▢ Conducting virtual health checks (e.g., self-reporting fever/temperature or symptoms)  
+▢ Encouraging or requiring employees to wear a face mask and/or other appropriate PPE  
+▢ Encouraging or requiring all other people (e.g., clients, customers, patients) to wear a face mask and/or other appropriate PPE 
+▢ Encouraging or requiring social distancing and providing social distancing guidelines (e.g., markers on the floor)  
+▢ Disinfecting and cleaning work spaces regularly  
+▢ Not applicable  (0) </t>
+  </si>
+  <si>
+    <t>01/03/2022-01/24/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1510,21 +1594,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.1640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="27.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="45.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="27.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1541,7 +1624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="409.6">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1552,242 +1635,248 @@
         <v>7</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="7" t="s">
-        <v>41</v>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="409.6">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="173.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="173.25">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="126">
+      <c r="A6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="173.25">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="110.25">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="110.25">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="126">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="220.5">
+      <c r="A11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="126">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="126">
+      <c r="A13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="C13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="7" t="s">
+    <row r="14" spans="1:5" ht="63">
+      <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="7" t="s">
+    <row r="15" spans="1:5" ht="63">
+      <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>43</v>
+    <row r="16" spans="1:5" ht="47.25">
+      <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="238" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="17" spans="1:5" ht="283.5">
+      <c r="A17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="B17" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/_site/Data/WorkforceModule.xlsx
+++ b/_site/Data/WorkforceModule.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhSsJCfcsTKMOJuLOkgISRJ+5tPCA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhvHCbZeF9MWWJMEGhiENQq51MkIg=="/>
     </ext>
   </extLst>
 </workbook>
@@ -354,7 +354,7 @@
     <t xml:space="preserve">Please describe any concerns or other thoughts you have about working and parenting during the pandemic. </t>
   </si>
   <si>
-    <t>Open response</t>
+    <t>Open ended response</t>
   </si>
   <si>
     <t xml:space="preserve">RAPID team developed </t>
@@ -1392,7 +1392,7 @@
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C20" s="5" t="s">
